--- a/markdown/code/2.3_Table_dependent_variables.xlsx
+++ b/markdown/code/2.3_Table_dependent_variables.xlsx
@@ -392,17 +392,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22.1 (5.8)</t>
+          <t>22.11 (5.78)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24.1 (4.5)</t>
+          <t>24.12 (4.49)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.9 (6.3)</t>
+          <t>19.87 (6.27)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -414,54 +414,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAIA subscale Noticing, Mean, (SD)</t>
+          <t>MAIA common factor, Mean, (SD)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.3 (0.9)</t>
+          <t>17.15 (5.49)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.4 (0.6)</t>
+          <t>19.07 (3.82)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.3 (1.2)</t>
+          <t>15.01 (6.27)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>&lt;0.001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Respiratory Trait-Prediction-Error, MAIA-RRST, Mean (SD)</t>
+          <t>MAIA subscale Noticing, Median, (IQR)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0 (1.2)</t>
+          <t>3.25 (1.00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.2 (1.1)</t>
+          <t>3.25 (0.75)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.1 (1.4)</t>
+          <t>3.25 (1.63)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -473,17 +473,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>85.0 (18.5)</t>
+          <t>85.00 (18.50)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>89.0 (14.3)</t>
+          <t>89.00 (14.25)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.0 (25.5)</t>
+          <t>80.00 (25.50)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -495,54 +495,54 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Respiratory Trait-Prediction-Error, IAS-RRST, Mean (SD)</t>
+          <t>Respiratory Sensitivity - RRST, Mean (SD)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0 (1.2)</t>
+          <t>3.22 (1.41)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.1 (0.9)</t>
+          <t>3.53 (1.13)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.1 (1.4)</t>
+          <t>2.88 (1.62)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.032</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Respiratory Sensitivity - RRST, Mean (SD)</t>
+          <t>Interoceptive Decision Prescision - RRST slope, Median (IQR)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.22 (1.41)</t>
+          <t>39.01 (421.44)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.53 (1.13)</t>
+          <t>32.48 (49.09)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.88 (1.62)</t>
+          <t>63.25 (2,880.42)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.062</t>
         </is>
       </c>
     </row>
